--- a/PsychoPy3 SST Task 2/conditions.xlsx
+++ b/PsychoPy3 SST Task 2/conditions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thomasquettier/Desktop/SST/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thomasquettier/Library/Mobile Documents/com~apple~CloudDocs/01.WORK/02GITHUB/Stop_signal_task/PsychoPy3 SST Task 2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07BA42F1-DEC9-784E-BE1D-10B95A9A2A55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{866A8DF6-10C3-A049-AE9D-C1AF95D2478A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5560" yWindow="3560" windowWidth="28040" windowHeight="17440" xr2:uid="{B61C86AD-22DE-4146-BFB4-57972EA0BAB6}"/>
+    <workbookView xWindow="5560" yWindow="6080" windowWidth="28040" windowHeight="17440" xr2:uid="{B61C86AD-22DE-4146-BFB4-57972EA0BAB6}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -50,9 +50,6 @@
     <t>go_right.png</t>
   </si>
   <si>
-    <t>bianco.png</t>
-  </si>
-  <si>
     <t>left</t>
   </si>
   <si>
@@ -66,6 +63,9 @@
   </si>
   <si>
     <t>correct_key</t>
+  </si>
+  <si>
+    <t>bianco.jpg</t>
   </si>
 </sst>
 </file>
@@ -440,7 +440,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -453,10 +453,10 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -464,10 +464,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
         <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -478,10 +478,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -492,10 +492,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
         <v>4</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -506,10 +506,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -520,10 +520,10 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
         <v>4</v>
-      </c>
-      <c r="C6" t="s">
-        <v>5</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -534,10 +534,10 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -548,10 +548,10 @@
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -562,10 +562,10 @@
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D9">
         <v>1</v>
